--- a/src/test/resources/test_data/TestData.xlsx
+++ b/src/test/resources/test_data/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Registration_Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>User_Type</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>ValidUser</t>
+  </si>
+  <si>
+    <t>test_suman@test.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
   </si>
   <si>
     <t>InvalidUser</t>
@@ -77,13 +83,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,11 +103,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,12 +267,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,46 +468,327 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -205,7 +835,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +870,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,26 +1073,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="18.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,131 +1103,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="10.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="10.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="13.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/test_data/TestData.xlsx
+++ b/src/test/resources/test_data/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Registration_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>User_Type</t>
   </si>
@@ -50,6 +51,9 @@
     <t>Last_Name</t>
   </si>
   <si>
+    <t>Passward</t>
+  </si>
+  <si>
     <t>Birth_Date</t>
   </si>
   <si>
@@ -78,6 +82,33 @@
   </si>
   <si>
     <t>Address_Alias</t>
+  </si>
+  <si>
+    <t>test_suman9@test.com</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Passward2</t>
+  </si>
+  <si>
+    <t>Kanchrapara</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Kanc</t>
   </si>
 </sst>
 </file>
@@ -85,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +139,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,47 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,52 +244,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -237,28 +251,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,187 +297,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,24 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,6 +511,50 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,26 +576,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,164 +597,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +754,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="B15:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1154,19 +1174,27 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="10.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="10.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="13.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="8.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="9.28571428571429" customWidth="1"/>
+    <col min="12" max="12" width="9.85714285714286" customWidth="1"/>
+    <col min="13" max="13" width="13.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="11.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -1183,55 +1211,83 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1986</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4">
+        <v>70091</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5">
+        <v>9231512731</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test_data/TestData.xlsx
+++ b/src/test/resources/test_data/TestData.xlsx
@@ -84,7 +84,7 @@
     <t>Address_Alias</t>
   </si>
   <si>
-    <t>test_suman9@test.com</t>
+    <t>test_suman11@test.com</t>
   </si>
   <si>
     <t>Suman</t>
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,19 +139,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -162,59 +162,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,8 +222,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,40 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +297,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,169 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +515,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -526,26 +541,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,38 +583,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,130 +618,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3"/>
@@ -1290,6 +1290,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="test_suman11@test.com" tooltip="mailto:test_suman11@test.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
